--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\long\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4817,7 +4817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4852,7 +4852,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5040,10 +5040,10 @@
   <dimension ref="A1:BH491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K418" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N420" sqref="N420"/>
+      <selection pane="bottomRight" activeCell="P237" sqref="P237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48088,7 +48088,7 @@
         <v>255</v>
       </c>
       <c r="P237" s="6" t="s">
-        <v>478</v>
+        <v>739</v>
       </c>
       <c r="Q237" s="6">
         <f>(24*68)+300</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5040,10 +5040,10 @@
   <dimension ref="A1:BH491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E232" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AM477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P237" sqref="P237"/>
+      <selection pane="bottomRight" activeCell="AZ492" sqref="AZ492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5040,10 +5040,10 @@
   <dimension ref="A1:BH491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AM477" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ492" sqref="AZ492"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
